--- a/Data_Product/App_Data/BBGN_Temp.xlsx
+++ b/Data_Product/App_Data/BBGN_Temp.xlsx
@@ -86,16 +86,67 @@
   <x:si>
     <x:t>Bộ phận</x:t>
   </x:si>
+  <x:si>
+    <x:t>A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEST - P.KH</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Tấn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Không xưởng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P. Kế hoạch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P.KH-P.KH-1A-121224001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoàn thành</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P.KH-P.KH-1A-121224002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BN Hủy Phiếu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P.KH-P.KH-1A-121224003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P.KH-P.KH-1A-121224004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P.KH-P.KH-1A-121224005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P.KH-P.KH-1A-121224006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đang xử lý</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P.KH-P.KH-1A-121224007</x:t>
+  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="2">
+  <x:numFmts count="5">
     <x:numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <x:numFmt numFmtId="165" formatCode="_-* #,##0.000\ _₫_-;\-* #,##0.000\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <x:numFmt numFmtId="166" formatCode="0.000"/>
+    <x:numFmt numFmtId="167" formatCode="0.00"/>
+    <x:numFmt numFmtId="168" formatCode="dd/MM/yyyy"/>
   </x:numFmts>
-  <x:fonts count="12" x14ac:knownFonts="1">
+  <x:fonts count="13" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -183,6 +234,13 @@
       <x:name val="Times New Roman"/>
       <x:family val="1"/>
     </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="13"/>
+      <x:color theme="1"/>
+      <x:name val="Times New Roman"/>
+      <x:family val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -479,31 +537,61 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="33">
+  <x:cellStyleXfs count="52">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="7" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="7" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="7" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -527,7 +615,13 @@
     <x:xf numFmtId="0" fontId="10" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="11" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="11" fillId="2" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -536,7 +630,13 @@
     <x:xf numFmtId="165" fontId="11" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -560,10 +660,13 @@
     <x:xf numFmtId="0" fontId="10" fillId="2" borderId="19" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="20" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="11" fillId="2" borderId="20" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -575,8 +678,20 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="12" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="12" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="12" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="51">
+  <x:cellXfs count="72">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -651,11 +766,51 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -675,7 +830,15 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -687,7 +850,15 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -719,19 +890,23 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="166" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -741,6 +916,30 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="168" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1112,11 +1311,15 @@
     <x:col min="4" max="4" width="12.425781" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="27.710938" style="1" customWidth="1"/>
     <x:col min="6" max="6" width="29.285156" style="1" customWidth="1"/>
-    <x:col min="7" max="8" width="16.140625" style="1" customWidth="1"/>
-    <x:col min="9" max="10" width="16.855469" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="16.140625" style="28" customWidth="1"/>
+    <x:col min="9" max="9" width="16.855469" style="29" customWidth="1"/>
+    <x:col min="10" max="10" width="16.855469" style="28" customWidth="1"/>
     <x:col min="11" max="11" width="24" style="1" customWidth="1"/>
     <x:col min="12" max="12" width="28.425781" style="1" customWidth="1"/>
-    <x:col min="13" max="15" width="16.855469" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="16.855469" style="28" customWidth="1"/>
+    <x:col min="14" max="14" width="16.855469" style="29" customWidth="1"/>
+    <x:col min="15" max="15" width="16.855469" style="28" customWidth="1"/>
     <x:col min="16" max="16" width="32.570312" style="1" customWidth="1"/>
     <x:col min="17" max="17" width="32" style="1" customWidth="1"/>
     <x:col min="18" max="18" width="16.855469" style="1" customWidth="1"/>
@@ -1131,6 +1334,12 @@
       <x:c r="C1" s="9"/>
       <x:c r="D1" s="9"/>
       <x:c r="E1" s="9"/>
+      <x:c r="H1" s="28"/>
+      <x:c r="I1" s="29"/>
+      <x:c r="J1" s="28"/>
+      <x:c r="M1" s="28"/>
+      <x:c r="N1" s="29"/>
+      <x:c r="O1" s="28"/>
     </x:row>
     <x:row r="2" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="9"/>
@@ -1138,6 +1347,12 @@
       <x:c r="C2" s="9"/>
       <x:c r="D2" s="9"/>
       <x:c r="E2" s="9"/>
+      <x:c r="H2" s="28"/>
+      <x:c r="I2" s="29"/>
+      <x:c r="J2" s="28"/>
+      <x:c r="M2" s="28"/>
+      <x:c r="N2" s="29"/>
+      <x:c r="O2" s="28"/>
     </x:row>
     <x:row r="3" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="10" t="s">
@@ -1149,14 +1364,14 @@
       <x:c r="E3" s="10"/>
       <x:c r="F3" s="10"/>
       <x:c r="G3" s="10"/>
-      <x:c r="H3" s="10"/>
-      <x:c r="I3" s="10"/>
-      <x:c r="J3" s="10"/>
+      <x:c r="H3" s="30"/>
+      <x:c r="I3" s="31"/>
+      <x:c r="J3" s="30"/>
       <x:c r="K3" s="10"/>
       <x:c r="L3" s="10"/>
-      <x:c r="M3" s="10"/>
-      <x:c r="N3" s="10"/>
-      <x:c r="O3" s="10"/>
+      <x:c r="M3" s="30"/>
+      <x:c r="N3" s="31"/>
+      <x:c r="O3" s="30"/>
       <x:c r="P3" s="10"/>
       <x:c r="Q3" s="10"/>
       <x:c r="R3" s="10"/>
@@ -1173,14 +1388,14 @@
       <x:c r="E4" s="11"/>
       <x:c r="F4" s="11"/>
       <x:c r="G4" s="11"/>
-      <x:c r="H4" s="11"/>
-      <x:c r="I4" s="11"/>
-      <x:c r="J4" s="11"/>
+      <x:c r="H4" s="32"/>
+      <x:c r="I4" s="33"/>
+      <x:c r="J4" s="32"/>
       <x:c r="K4" s="11"/>
       <x:c r="L4" s="11"/>
-      <x:c r="M4" s="11"/>
-      <x:c r="N4" s="11"/>
-      <x:c r="O4" s="11"/>
+      <x:c r="M4" s="32"/>
+      <x:c r="N4" s="33"/>
+      <x:c r="O4" s="32"/>
       <x:c r="P4" s="11"/>
       <x:c r="Q4" s="11"/>
       <x:c r="R4" s="11"/>
@@ -1195,14 +1410,14 @@
       <x:c r="E5" s="3"/>
       <x:c r="F5" s="3"/>
       <x:c r="G5" s="3"/>
-      <x:c r="H5" s="3"/>
-      <x:c r="I5" s="3"/>
-      <x:c r="J5" s="3"/>
+      <x:c r="H5" s="34"/>
+      <x:c r="I5" s="35"/>
+      <x:c r="J5" s="34"/>
       <x:c r="K5" s="3"/>
       <x:c r="L5" s="3"/>
-      <x:c r="M5" s="3"/>
-      <x:c r="N5" s="3"/>
-      <x:c r="O5" s="3"/>
+      <x:c r="M5" s="34"/>
+      <x:c r="N5" s="35"/>
+      <x:c r="O5" s="34"/>
       <x:c r="P5" s="3"/>
       <x:c r="Q5" s="3"/>
       <x:c r="R5" s="3"/>
@@ -1214,10 +1429,10 @@
       <x:c r="B6" s="12" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C6" s="28" t="s">
+      <x:c r="C6" s="36" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D6" s="28" t="s">
+      <x:c r="D6" s="36" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E6" s="12" t="s">
@@ -1229,20 +1444,20 @@
       <x:c r="G6" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="H6" s="29" t="s">
+      <x:c r="H6" s="37" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="I6" s="30"/>
-      <x:c r="J6" s="30"/>
-      <x:c r="K6" s="30"/>
-      <x:c r="L6" s="31"/>
-      <x:c r="M6" s="29" t="s">
+      <x:c r="I6" s="38"/>
+      <x:c r="J6" s="39"/>
+      <x:c r="K6" s="40"/>
+      <x:c r="L6" s="41"/>
+      <x:c r="M6" s="37" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="N6" s="30"/>
-      <x:c r="O6" s="30"/>
-      <x:c r="P6" s="30"/>
-      <x:c r="Q6" s="31"/>
+      <x:c r="N6" s="38"/>
+      <x:c r="O6" s="39"/>
+      <x:c r="P6" s="40"/>
+      <x:c r="Q6" s="41"/>
       <x:c r="R6" s="25" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -1254,76 +1469,503 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="32"/>
-      <x:c r="B7" s="32"/>
-      <x:c r="C7" s="33"/>
-      <x:c r="D7" s="33"/>
-      <x:c r="E7" s="32"/>
-      <x:c r="F7" s="32"/>
-      <x:c r="G7" s="32"/>
-      <x:c r="H7" s="34"/>
-      <x:c r="I7" s="35"/>
-      <x:c r="J7" s="35"/>
-      <x:c r="K7" s="35"/>
-      <x:c r="L7" s="36"/>
-      <x:c r="M7" s="37"/>
-      <x:c r="N7" s="38"/>
-      <x:c r="O7" s="38"/>
-      <x:c r="P7" s="38"/>
-      <x:c r="Q7" s="39"/>
-      <x:c r="R7" s="40"/>
-      <x:c r="S7" s="41"/>
-      <x:c r="T7" s="42"/>
+      <x:c r="A7" s="42"/>
+      <x:c r="B7" s="42"/>
+      <x:c r="C7" s="43"/>
+      <x:c r="D7" s="43"/>
+      <x:c r="E7" s="42"/>
+      <x:c r="F7" s="42"/>
+      <x:c r="G7" s="42"/>
+      <x:c r="H7" s="44"/>
+      <x:c r="I7" s="45"/>
+      <x:c r="J7" s="46"/>
+      <x:c r="K7" s="47"/>
+      <x:c r="L7" s="48"/>
+      <x:c r="M7" s="49"/>
+      <x:c r="N7" s="50"/>
+      <x:c r="O7" s="51"/>
+      <x:c r="P7" s="52"/>
+      <x:c r="Q7" s="53"/>
+      <x:c r="R7" s="54"/>
+      <x:c r="S7" s="55"/>
+      <x:c r="T7" s="56"/>
     </x:row>
     <x:row r="8" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="43"/>
-      <x:c r="B8" s="43"/>
-      <x:c r="C8" s="44"/>
-      <x:c r="D8" s="44"/>
-      <x:c r="E8" s="43"/>
-      <x:c r="F8" s="43"/>
-      <x:c r="G8" s="43"/>
-      <x:c r="H8" s="45" t="s">
+      <x:c r="A8" s="57"/>
+      <x:c r="B8" s="57"/>
+      <x:c r="C8" s="58"/>
+      <x:c r="D8" s="58"/>
+      <x:c r="E8" s="57"/>
+      <x:c r="F8" s="57"/>
+      <x:c r="G8" s="57"/>
+      <x:c r="H8" s="59" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="I8" s="46" t="s">
+      <x:c r="I8" s="60" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="J8" s="47" t="s">
+      <x:c r="J8" s="61" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="K8" s="47" t="s">
+      <x:c r="K8" s="62" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L8" s="47" t="s">
+      <x:c r="L8" s="62" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="M8" s="45" t="s">
+      <x:c r="M8" s="59" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="N8" s="46" t="s">
+      <x:c r="N8" s="60" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="O8" s="48" t="s">
+      <x:c r="O8" s="63" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="P8" s="47" t="s">
+      <x:c r="P8" s="62" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="Q8" s="47" t="s">
+      <x:c r="Q8" s="62" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="R8" s="49"/>
-      <x:c r="S8" s="41"/>
-      <x:c r="T8" s="50"/>
+      <x:c r="R8" s="64"/>
+      <x:c r="S8" s="55"/>
+      <x:c r="T8" s="65"/>
     </x:row>
-    <x:row r="9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <x:row r="10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <x:row r="11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <x:row r="12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <x:row r="13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <x:row r="14" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <x:row r="15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <x:row r="9" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="66">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B9" s="67">
+        <x:v>45638</x:v>
+      </x:c>
+      <x:c r="C9" s="68" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D9" s="69" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E9" s="69" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F9" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G9" s="69" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H9" s="70">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="I9" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J9" s="70">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="K9" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L9" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M9" s="70">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="N9" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O9" s="70">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="P9" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q9" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R9" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S9" s="69" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T9" s="69" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="66">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B10" s="67">
+        <x:v>45638</x:v>
+      </x:c>
+      <x:c r="C10" s="68" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D10" s="69" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E10" s="69" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F10" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G10" s="69" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H10" s="70">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="I10" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J10" s="70">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="K10" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L10" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M10" s="70">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="N10" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O10" s="70">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="P10" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q10" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R10" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S10" s="69" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="T10" s="69" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="66">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B11" s="67">
+        <x:v>45638</x:v>
+      </x:c>
+      <x:c r="C11" s="68" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D11" s="69" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E11" s="69" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G11" s="69" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H11" s="70">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="I11" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J11" s="70">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="K11" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M11" s="70">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="N11" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O11" s="70">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="P11" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q11" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R11" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S11" s="69" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="T11" s="69" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="66">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="67">
+        <x:v>45638</x:v>
+      </x:c>
+      <x:c r="C12" s="68" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D12" s="69" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E12" s="69" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F12" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G12" s="69" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H12" s="70">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="I12" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J12" s="70">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="K12" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M12" s="70">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="N12" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O12" s="70">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="P12" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q12" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R12" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S12" s="69" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="T12" s="69" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="66">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B13" s="67">
+        <x:v>45638</x:v>
+      </x:c>
+      <x:c r="C13" s="68" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D13" s="69" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="69" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G13" s="69" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H13" s="70">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="I13" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J13" s="70">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="K13" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L13" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M13" s="70">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="N13" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O13" s="70">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="P13" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q13" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R13" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S13" s="69" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="T13" s="69" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="66">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B14" s="67">
+        <x:v>45638</x:v>
+      </x:c>
+      <x:c r="C14" s="68" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D14" s="69" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E14" s="69" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F14" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G14" s="69" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H14" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="I14" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J14" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="K14" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M14" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="N14" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O14" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="P14" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q14" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R14" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S14" s="69" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="T14" s="69" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="66">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B15" s="67">
+        <x:v>45638</x:v>
+      </x:c>
+      <x:c r="C15" s="68" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D15" s="69" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E15" s="69" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F15" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G15" s="69" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H15" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="I15" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="K15" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L15" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M15" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="N15" s="71">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O15" s="70">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="P15" s="69" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q15" s="69" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R15" s="69" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="S15" s="69" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T15" s="69" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
     <x:row r="16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <x:row r="17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <x:row r="18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
